--- a/チーム開発定義書/1.打ち合わせ議事録.xlsx
+++ b/チーム開発定義書/1.打ち合わせ議事録.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -298,6 +298,33 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sql inner joinで予約状況等出力</t>
+    <rPh sb="15" eb="17">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -337,7 +364,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +374,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -507,10 +546,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,18 +591,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -649,16 +690,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28573</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>285035</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>86670</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>12192</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -675,8 +716,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6438899" y="9744076"/>
-          <a:ext cx="3990261" cy="2972744"/>
+          <a:off x="4629148" y="9591675"/>
+          <a:ext cx="7086601" cy="5279517"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -992,7 +1033,7 @@
   <dimension ref="A1:AE55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
@@ -1002,29 +1043,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
       <c r="V1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1041,41 +1082,41 @@
       <c r="AE1" s="12"/>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="24">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="15">
         <v>43651</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="25" t="s">
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="12" t="s">
@@ -1084,103 +1125,103 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="25"/>
     </row>
     <row r="5" spans="1:31" ht="12.95" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="12" t="s">
@@ -1189,33 +1230,33 @@
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
     </row>
     <row r="8" spans="1:31" ht="9.9499999999999993" customHeight="1"/>
     <row r="9" spans="1:31">
@@ -1328,7 +1369,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="27" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="6"/>
@@ -1340,8 +1381,10 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1366,7 +1409,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="27" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="6"/>
@@ -1376,7 +1419,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="P13" s="27"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1396,7 +1439,9 @@
     <row r="14" spans="1:31">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1412,7 +1457,9 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -1469,7 +1516,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="26" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="6"/>
@@ -1503,7 +1550,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="26" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
@@ -2681,6 +2728,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:AE7"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:AE4"/>
     <mergeCell ref="A1:U2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D6"/>
@@ -2690,11 +2742,6 @@
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="E6:AE6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:AE7"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:AE4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
